--- a/data/gihun/dataset/전국데이터프레임2006~2021.xlsx
+++ b/data/gihun/dataset/전국데이터프레임2006~2021.xlsx
@@ -521,9 +521,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>275077.7</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>49</v>
       </c>
@@ -549,9 +547,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>271995.7</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>48.7</v>
       </c>
@@ -577,9 +573,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>288399.4</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>48.1</v>
       </c>
@@ -605,9 +599,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>304701.1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>49.2</v>
       </c>
@@ -633,9 +625,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>301666.2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>49.5</v>
       </c>
@@ -661,9 +651,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>316512.4</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>49.1</v>
       </c>
@@ -689,9 +677,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>323411.1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>47.6</v>
       </c>
@@ -717,9 +703,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>326441</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>46.5</v>
       </c>
@@ -745,9 +729,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>343188.4</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>46.8</v>
       </c>
@@ -773,9 +755,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>347710.3</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>47.8</v>
       </c>
@@ -801,9 +781,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>357049.8</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>48.8</v>
       </c>
@@ -829,9 +807,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>363953.3</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>49.6</v>
       </c>
@@ -857,9 +833,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>376367.6</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>49.7</v>
       </c>
@@ -885,9 +859,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>376827.8</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>49.8</v>
       </c>
@@ -913,9 +885,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>382005.3</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>49.1</v>
       </c>
@@ -941,9 +911,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>383965.1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>49.8</v>
       </c>
@@ -969,9 +937,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>388939.4</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>50</v>
       </c>
@@ -997,9 +963,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>396237.6</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>49.4</v>
       </c>
@@ -1025,9 +989,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>404660.9</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>47.9</v>
       </c>
@@ -1053,9 +1015,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>398788.2</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>46.9</v>
       </c>
@@ -1081,9 +1041,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>401364.1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>46.9</v>
       </c>
@@ -1109,9 +1067,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>403854.1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>48.4</v>
       </c>
@@ -1137,9 +1093,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>414083</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>49.9</v>
       </c>
@@ -1165,9 +1119,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>415301.9</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>50.5</v>
       </c>
@@ -1193,9 +1145,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>420905.5</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>50.3</v>
       </c>
@@ -1221,9 +1171,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>423459.3</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>50.1</v>
       </c>
@@ -1249,9 +1197,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>431751.5</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>49.4</v>
       </c>
@@ -1277,9 +1223,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>441296.9</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>50.2</v>
       </c>
@@ -1305,9 +1249,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>440329.1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>50.5</v>
       </c>
@@ -1333,9 +1275,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>446812.5</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>50.3</v>
       </c>
@@ -1361,9 +1301,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>455630.5</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>48.9</v>
       </c>
@@ -1389,9 +1327,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>461604.9</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>48.1</v>
       </c>
@@ -1417,9 +1353,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>472909</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>48.3</v>
       </c>
@@ -1445,9 +1379,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>478356.3</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>49.3</v>
       </c>
@@ -1473,9 +1405,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>481318.6</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>50.6</v>
       </c>
@@ -1501,9 +1431,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>481926.4</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>51</v>
       </c>
@@ -1529,9 +1457,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>487128.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>50.9</v>
       </c>
@@ -1557,9 +1483,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>484492.3</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>50.6</v>
       </c>
@@ -1585,9 +1509,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>492566.9</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>49.8</v>
       </c>
@@ -1613,9 +1535,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>499125.7</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>50.5</v>
       </c>
@@ -1641,9 +1561,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>505078</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>50.6</v>
       </c>
@@ -1669,9 +1587,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>508894.1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>49.9</v>
       </c>
@@ -1697,9 +1613,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>512419.4</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>48.7</v>
       </c>
@@ -1725,9 +1639,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>504039.9</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>47.5</v>
       </c>
@@ -1753,9 +1665,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>506459.6</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>47.2</v>
       </c>
@@ -1781,9 +1691,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>524890.5</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>48.4</v>
       </c>
@@ -1809,9 +1717,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>525085.6</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>49.2</v>
       </c>
@@ -1837,9 +1743,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>530198</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>49.9</v>
       </c>
@@ -1865,9 +1769,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>537713.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>49.9</v>
       </c>
@@ -1893,9 +1795,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>535720.7</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>50</v>
       </c>
@@ -1921,9 +1821,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>539316.4</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>49</v>
       </c>
@@ -1949,9 +1847,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>529085.6</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>49.5</v>
       </c>
@@ -1977,9 +1873,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>534677.2</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>49.9</v>
       </c>
@@ -2009,9 +1903,7 @@
       <c r="I55" t="n">
         <v>49.7</v>
       </c>
-      <c r="J55" t="n">
-        <v>549130.7</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>49.7</v>
       </c>
@@ -2041,9 +1933,7 @@
       <c r="I56" t="n">
         <v>49.2</v>
       </c>
-      <c r="J56" t="n">
-        <v>548098.4</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>48.5</v>
       </c>
@@ -2073,9 +1963,7 @@
       <c r="I57" t="n">
         <v>49.1</v>
       </c>
-      <c r="J57" t="n">
-        <v>543983.9</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>48.4</v>
       </c>
@@ -2105,9 +1993,7 @@
       <c r="I58" t="n">
         <v>49.3</v>
       </c>
-      <c r="J58" t="n">
-        <v>554754.9</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>48.9</v>
       </c>
@@ -2137,9 +2023,7 @@
       <c r="I59" t="n">
         <v>49.6</v>
       </c>
-      <c r="J59" t="n">
-        <v>548136.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>49.9</v>
       </c>
@@ -2169,9 +2053,7 @@
       <c r="I60" t="n">
         <v>49.7</v>
       </c>
-      <c r="J60" t="n">
-        <v>548752.4</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>50.8</v>
       </c>
@@ -2201,9 +2083,7 @@
       <c r="I61" t="n">
         <v>49.7</v>
       </c>
-      <c r="J61" t="n">
-        <v>544484.9</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>50.8</v>
       </c>
@@ -2233,9 +2113,7 @@
       <c r="I62" t="n">
         <v>49.3</v>
       </c>
-      <c r="J62" t="n">
-        <v>548294.3</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>50.9</v>
       </c>
@@ -2265,9 +2143,7 @@
       <c r="I63" t="n">
         <v>49</v>
       </c>
-      <c r="J63" t="n">
-        <v>540958.9</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>50.8</v>
       </c>
@@ -2297,9 +2173,7 @@
       <c r="I64" t="n">
         <v>48.5</v>
       </c>
-      <c r="J64" t="n">
-        <v>540836.8</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>49.6</v>
       </c>
@@ -2329,9 +2203,7 @@
       <c r="I65" t="n">
         <v>48.3</v>
       </c>
-      <c r="J65" t="n">
-        <v>550609.7</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>50.9</v>
       </c>
@@ -2361,9 +2233,7 @@
       <c r="I66" t="n">
         <v>48.2</v>
       </c>
-      <c r="J66" t="n">
-        <v>538311</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>50.9</v>
       </c>
@@ -2393,9 +2263,7 @@
       <c r="I67" t="n">
         <v>47.9</v>
       </c>
-      <c r="J67" t="n">
-        <v>537759.2</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>50.4</v>
       </c>
@@ -2425,9 +2293,7 @@
       <c r="I68" t="n">
         <v>47.5</v>
       </c>
-      <c r="J68" t="n">
-        <v>540726.2</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>49.5</v>
       </c>
@@ -2457,9 +2323,7 @@
       <c r="I69" t="n">
         <v>47.2</v>
       </c>
-      <c r="J69" t="n">
-        <v>537409.1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>48.5</v>
       </c>
@@ -2491,9 +2355,7 @@
       <c r="I70" t="n">
         <v>47.5</v>
       </c>
-      <c r="J70" t="n">
-        <v>545285.4</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>48.5</v>
       </c>
@@ -2525,9 +2387,7 @@
       <c r="I71" t="n">
         <v>47.9</v>
       </c>
-      <c r="J71" t="n">
-        <v>537953.5</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>49.7</v>
       </c>
@@ -2559,9 +2419,7 @@
       <c r="I72" t="n">
         <v>48.2</v>
       </c>
-      <c r="J72" t="n">
-        <v>544188.6</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>50.6</v>
       </c>
@@ -2593,9 +2451,7 @@
       <c r="I73" t="n">
         <v>48.4</v>
       </c>
-      <c r="J73" t="n">
-        <v>546335.5</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>51.2</v>
       </c>
@@ -2627,9 +2483,7 @@
       <c r="I74" t="n">
         <v>48.7</v>
       </c>
-      <c r="J74" t="n">
-        <v>555281.8</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>51.2</v>
       </c>
@@ -2661,9 +2515,7 @@
       <c r="I75" t="n">
         <v>48.8</v>
       </c>
-      <c r="J75" t="n">
-        <v>547884.1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>51</v>
       </c>
@@ -2695,9 +2547,7 @@
       <c r="I76" t="n">
         <v>49</v>
       </c>
-      <c r="J76" t="n">
-        <v>546355.5</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>49.9</v>
       </c>
@@ -2729,9 +2579,7 @@
       <c r="I77" t="n">
         <v>49.6</v>
       </c>
-      <c r="J77" t="n">
-        <v>559445.4</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>51</v>
       </c>
@@ -2763,9 +2611,7 @@
       <c r="I78" t="n">
         <v>50.1</v>
       </c>
-      <c r="J78" t="n">
-        <v>553378.4</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>51.3</v>
       </c>
@@ -2797,9 +2643,7 @@
       <c r="I79" t="n">
         <v>50.3</v>
       </c>
-      <c r="J79" t="n">
-        <v>558045.5</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>50.9</v>
       </c>
@@ -2831,9 +2675,7 @@
       <c r="I80" t="n">
         <v>50.4</v>
       </c>
-      <c r="J80" t="n">
-        <v>561945.6</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>49.4</v>
       </c>

--- a/data/gihun/dataset/전국데이터프레임2006~2021.xlsx
+++ b/data/gihun/dataset/전국데이터프레임2006~2021.xlsx
@@ -509,7 +509,7 @@
         <v>5.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001351985210937284</v>
+        <v>0.2832822889937367</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
@@ -535,7 +535,7 @@
         <v>5.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001912503927112787</v>
+        <v>0.4022934338674207</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00250299214237394</v>
+        <v>0.5481604829057605</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
@@ -587,7 +587,7 @@
         <v>4.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002984531392174705</v>
+        <v>0.5494692144373673</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002002994375429936</v>
+        <v>0.412333589608708</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
@@ -639,7 +639,7 @@
         <v>3.9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001405829468018095</v>
+        <v>0.2699994273607055</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
@@ -665,7 +665,7 @@
         <v>4.3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001066451583994265</v>
+        <v>0.2205941658825111</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
@@ -691,7 +691,7 @@
         <v>4.8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001543824701195219</v>
+        <v>0.3002988047808765</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
@@ -717,7 +717,7 @@
         <v>4.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001787146293962653</v>
+        <v>0.3586512391644709</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
@@ -743,7 +743,7 @@
         <v>4.6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001571437964363206</v>
+        <v>0.3576172003419028</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
@@ -769,7 +769,7 @@
         <v>3.6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00173178608183399</v>
+        <v>0.3066113062919195</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
@@ -795,7 +795,7 @@
         <v>3.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001403906028870648</v>
+        <v>0.2889895273138975</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
@@ -821,7 +821,7 @@
         <v>3.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00171208102242585</v>
+        <v>0.3556443556443556</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
@@ -847,7 +847,7 @@
         <v>3.2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002430691136274892</v>
+        <v>0.4921417415072237</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
@@ -873,7 +873,7 @@
         <v>3.3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002614483493077742</v>
+        <v>0.5972310969116081</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
@@ -899,7 +899,7 @@
         <v>3.4</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003143145670285281</v>
+        <v>0.596124715980813</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
@@ -925,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001864071878611639</v>
+        <v>0.3961525556425456</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
@@ -951,7 +951,7 @@
         <v>3.1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001481570344600066</v>
+        <v>0.2965240080376691</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
@@ -977,7 +977,7 @@
         <v>3.6</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001275666462489014</v>
+        <v>0.2585688034301846</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001719208211143695</v>
+        <v>0.3398093841642228</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
@@ -1029,7 +1029,7 @@
         <v>4.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001934579053747473</v>
+        <v>0.4617002846182403</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
@@ -1055,7 +1055,7 @@
         <v>4.2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001728447968002285</v>
+        <v>0.4380401399900007</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
@@ -1081,7 +1081,7 @@
         <v>3.5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001716841562016171</v>
+        <v>0.373060381902632</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
@@ -1107,7 +1107,7 @@
         <v>3.1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001493685113431335</v>
+        <v>0.3456180307018841</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001900623464953712</v>
+        <v>0.4295484602304931</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002434875583203733</v>
+        <v>0.567603032659409</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
@@ -1185,7 +1185,7 @@
         <v>3.1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002494445566552211</v>
+        <v>0.6433548778024641</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
@@ -1211,7 +1211,7 @@
         <v>2.7</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002926943035391523</v>
+        <v>0.6345402600431461</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
@@ -1237,7 +1237,7 @@
         <v>2.8</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002318640955004591</v>
+        <v>0.522910927456382</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
@@ -1263,7 +1263,7 @@
         <v>2.8</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001588053292921639</v>
+        <v>0.3430573972343247</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
@@ -1289,7 +1289,7 @@
         <v>3.2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001268219305980601</v>
+        <v>0.2703719072566004</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
@@ -1315,7 +1315,7 @@
         <v>3.6</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001679058889237966</v>
+        <v>0.4137256955353091</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
@@ -1341,7 +1341,7 @@
         <v>3.6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002309457779477862</v>
+        <v>0.4788658315004303</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
@@ -1367,7 +1367,7 @@
         <v>3.5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001863964611138417</v>
+        <v>0.459223411093047</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
@@ -1393,7 +1393,7 @@
         <v>2.9</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001921908234579155</v>
+        <v>0.4448875721665148</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
@@ -1419,7 +1419,7 @@
         <v>2.7</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001594397724075406</v>
+        <v>0.388095163660237</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
@@ -1445,7 +1445,7 @@
         <v>2.3</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002050104720476881</v>
+        <v>0.4341872079909779</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
@@ -1471,7 +1471,7 @@
         <v>2.6</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002338586680223691</v>
+        <v>0.5638489624254749</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
@@ -1497,7 +1497,7 @@
         <v>2.6</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002555681001744842</v>
+        <v>0.6962434568408088</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
@@ -1523,7 +1523,7 @@
         <v>2.2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003151522715926111</v>
+        <v>0.7554293559660509</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
@@ -1549,7 +1549,7 @@
         <v>2.2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002188202733091161</v>
+        <v>0.5858415499048607</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
@@ -1575,7 +1575,7 @@
         <v>2.2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001656981570645857</v>
+        <v>0.4057446455254856</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
@@ -1601,7 +1601,7 @@
         <v>2.5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001378119870960439</v>
+        <v>0.3495387401663931</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
@@ -1627,7 +1627,7 @@
         <v>3.6</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001899544109413741</v>
+        <v>0.5362313044869231</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
@@ -1653,7 +1653,7 @@
         <v>3.6</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002093404887568191</v>
+        <v>0.6366700669712156</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
@@ -1679,7 +1679,7 @@
         <v>3.5</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001912589899628546</v>
+        <v>0.5911246344740377</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
@@ -1705,7 +1705,7 @@
         <v>3.2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001914396887159533</v>
+        <v>0.5587937743190662</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
@@ -1731,7 +1731,7 @@
         <v>3.1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001679795327543257</v>
+        <v>0.480004039587962</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
@@ -1757,7 +1757,7 @@
         <v>3.1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002037150438865075</v>
+        <v>0.59648907940396</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
@@ -1783,7 +1783,7 @@
         <v>3.3</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002252658136601189</v>
+        <v>0.6990899261128131</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
@@ -1809,7 +1809,7 @@
         <v>3.2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.002568134171907757</v>
+        <v>0.7628930817610063</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
@@ -1835,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>0.003017372752209692</v>
+        <v>0.7901859189271564</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
@@ -1861,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001920043095155643</v>
+        <v>0.5309938820270115</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
@@ -1887,7 +1887,7 @@
         <v>3.4</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001719485192360919</v>
+        <v>0.3987337392748408</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
@@ -1917,7 +1917,7 @@
         <v>3.5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001304850816540666</v>
+        <v>0.3309747370120262</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
@@ -1947,7 +1947,7 @@
         <v>3.7</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001920253917873438</v>
+        <v>0.4295576274548701</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
@@ -1977,7 +1977,7 @@
         <v>4.1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.002063900730173469</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
@@ -2007,7 +2007,7 @@
         <v>4.1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001816923973201282</v>
+        <v>0.4780075735508302</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
@@ -2037,7 +2037,7 @@
         <v>3.6</v>
       </c>
       <c r="C60" t="n">
-        <v>0.00226179875333927</v>
+        <v>0.5073909171861086</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
@@ -2067,7 +2067,7 @@
         <v>3.3</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001879323739410307</v>
+        <v>0.4129702933668751</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
@@ -2097,7 +2097,7 @@
         <v>3.1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0018696738172201</v>
+        <v>0.4538642374375551</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
@@ -2127,7 +2127,7 @@
         <v>3.2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.002450436544305629</v>
+        <v>0.5507211422507357</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
@@ -2157,7 +2157,7 @@
         <v>3.3</v>
       </c>
       <c r="C64" t="n">
-        <v>0.002364269030935698</v>
+        <v>0.5723342390009056</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
@@ -2187,7 +2187,7 @@
         <v>2.9</v>
       </c>
       <c r="C65" t="n">
-        <v>0.003071631162874902</v>
+        <v>0.5962826624826504</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
@@ -2217,7 +2217,7 @@
         <v>2.9</v>
       </c>
       <c r="C66" t="n">
-        <v>0.002178285616467668</v>
+        <v>0.5103350879445372</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
@@ -2247,7 +2247,7 @@
         <v>2.8</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001668597914252607</v>
+        <v>0.3629531534514153</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
@@ -2277,7 +2277,7 @@
         <v>3.3</v>
       </c>
       <c r="C68" t="n">
-        <v>0.001133553173948887</v>
+        <v>0.2563891178895301</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
@@ -2307,7 +2307,7 @@
         <v>3.9</v>
       </c>
       <c r="C69" t="n">
-        <v>0.002002973486412819</v>
+        <v>0.4314446188155612</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
@@ -2339,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.002350603402316677</v>
+        <v>0.467164251441865</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
@@ -2371,7 +2371,7 @@
         <v>3.8</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001845662507427213</v>
+        <v>0.4482694592988711</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
@@ -2403,7 +2403,7 @@
         <v>3.6</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001996212718952186</v>
+        <v>0.394468991636421</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
@@ -2435,7 +2435,7 @@
         <v>3.3</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001735299101847145</v>
+        <v>0.3604812743602779</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
@@ -2467,7 +2467,7 @@
         <v>3.4</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001884223309903213</v>
+        <v>0.3875538218084127</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
@@ -2499,7 +2499,7 @@
         <v>3.2</v>
       </c>
       <c r="C75" t="n">
-        <v>0.002339020363236103</v>
+        <v>0.4851403412217942</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
@@ -2531,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00213759424263194</v>
+        <v>0.5237320082248115</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
@@ -2563,7 +2563,7 @@
         <v>3.3</v>
       </c>
       <c r="C77" t="n">
-        <v>0.002685482597019641</v>
+        <v>0.5705860670844084</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
@@ -2595,7 +2595,7 @@
         <v>3.4</v>
       </c>
       <c r="C78" t="n">
-        <v>0.002149411321070935</v>
+        <v>0.4490300414798676</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
@@ -2627,7 +2627,7 @@
         <v>2.9</v>
       </c>
       <c r="C79" t="n">
-        <v>0.00160603287792257</v>
+        <v>0.330009781339728</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
@@ -2659,7 +2659,7 @@
         <v>3.1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001210665621017547</v>
+        <v>0.2425252426232722</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
@@ -2691,7 +2691,7 @@
         <v>3.2</v>
       </c>
       <c r="C81" t="n">
-        <v>0.001867843420702248</v>
+        <v>0.3911439114391144</v>
       </c>
       <c r="D81" t="n">
         <v>9.300000000000001</v>
@@ -2729,7 +2729,7 @@
         <v>3.6</v>
       </c>
       <c r="C82" t="n">
-        <v>0.002195438863748376</v>
+        <v>0.4921815493525696</v>
       </c>
       <c r="D82" t="n">
         <v>9.325000000000001</v>
@@ -2767,7 +2767,7 @@
         <v>3.5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.00181950774840474</v>
+        <v>0.4113035551504102</v>
       </c>
       <c r="D83" t="n">
         <v>9.350000000000001</v>
@@ -2805,7 +2805,7 @@
         <v>2.9</v>
       </c>
       <c r="C84" t="n">
-        <v>0.002085043506813331</v>
+        <v>0.3910687900180594</v>
       </c>
       <c r="D84" t="n">
         <v>9.375</v>
@@ -2843,7 +2843,7 @@
         <v>2.7</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001635900700190961</v>
+        <v>0.3276575429662635</v>
       </c>
       <c r="D85" t="n">
         <v>9.4</v>
@@ -2881,7 +2881,7 @@
         <v>2.8</v>
       </c>
       <c r="C86" t="n">
-        <v>0.001773538122460225</v>
+        <v>0.3761622701287968</v>
       </c>
       <c r="D86" t="n">
         <v>9.425000000000001</v>
@@ -2919,7 +2919,7 @@
         <v>2.9</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00228428660658517</v>
+        <v>0.4534665833853841</v>
       </c>
       <c r="D87" t="n">
         <v>9.449999999999999</v>
@@ -2957,7 +2957,7 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001993487411643237</v>
+        <v>0.451711539988881</v>
       </c>
       <c r="D88" t="n">
         <v>9.475</v>
@@ -2995,7 +2995,7 @@
         <v>2.7</v>
       </c>
       <c r="C89" t="n">
-        <v>0.002650075493309731</v>
+        <v>0.5230905399073255</v>
       </c>
       <c r="D89" t="n">
         <v>9.5</v>
@@ -3033,7 +3033,7 @@
         <v>2.7</v>
       </c>
       <c r="C90" t="n">
-        <v>0.002214739023442559</v>
+        <v>0.4119932651210983</v>
       </c>
       <c r="D90" t="n">
         <v>9.525</v>
@@ -3071,7 +3071,7 @@
         <v>2.6</v>
       </c>
       <c r="C91" t="n">
-        <v>0.001515600901649069</v>
+        <v>0.3105647170482857</v>
       </c>
       <c r="D91" t="n">
         <v>9.550000000000001</v>
@@ -3109,7 +3109,7 @@
         <v>2.8</v>
       </c>
       <c r="C92" t="n">
-        <v>0.001075945248270028</v>
+        <v>0.2089199331872709</v>
       </c>
       <c r="D92" t="n">
         <v>9.574999999999999</v>
@@ -3147,7 +3147,7 @@
         <v>2.9</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001493218174077003</v>
+        <v>0.323672526002068</v>
       </c>
       <c r="D93" t="n">
         <v>9.6</v>
@@ -3185,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001755016902826728</v>
+        <v>0.352262101704668</v>
       </c>
       <c r="D94" t="n">
         <v>9.625</v>
@@ -3223,7 +3223,7 @@
         <v>2.8</v>
       </c>
       <c r="C95" t="n">
-        <v>0.001823307582469886</v>
+        <v>0.3839563577783473</v>
       </c>
       <c r="D95" t="n">
         <v>9.65</v>
@@ -3261,7 +3261,7 @@
         <v>2.7</v>
       </c>
       <c r="C96" t="n">
-        <v>0.00191547811688556</v>
+        <v>0.3894178301283258</v>
       </c>
       <c r="D96" t="n">
         <v>9.675000000000001</v>
@@ -3299,7 +3299,7 @@
         <v>2.5</v>
       </c>
       <c r="C97" t="n">
-        <v>0.001614980990982499</v>
+        <v>0.3347158073333962</v>
       </c>
       <c r="D97" t="n">
         <v>9.699999999999999</v>
@@ -3337,7 +3337,7 @@
         <v>2.6</v>
       </c>
       <c r="C98" t="n">
-        <v>0.001867633726201269</v>
+        <v>0.3555394378966455</v>
       </c>
       <c r="D98" t="n">
         <v>9.725</v>
@@ -3375,7 +3375,7 @@
         <v>2.7</v>
       </c>
       <c r="C99" t="n">
-        <v>0.002063101905951565</v>
+        <v>0.4215658621106499</v>
       </c>
       <c r="D99" t="n">
         <v>9.75</v>
@@ -3413,7 +3413,7 @@
         <v>2.5</v>
       </c>
       <c r="C100" t="n">
-        <v>0.00193287037037037</v>
+        <v>0.4328703703703703</v>
       </c>
       <c r="D100" t="n">
         <v>9.775</v>
@@ -3451,7 +3451,7 @@
         <v>2.4</v>
       </c>
       <c r="C101" t="n">
-        <v>0.002778385473638153</v>
+        <v>0.4743491577335375</v>
       </c>
       <c r="D101" t="n">
         <v>9.800000000000001</v>
@@ -3489,7 +3489,7 @@
         <v>2.5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.001873879149434542</v>
+        <v>0.4146323610145299</v>
       </c>
       <c r="D102" t="n">
         <v>9.824999999999999</v>
@@ -3527,7 +3527,7 @@
         <v>2.5</v>
       </c>
       <c r="C103" t="n">
-        <v>0.00152664913957935</v>
+        <v>0.3271092256214149</v>
       </c>
       <c r="D103" t="n">
         <v>9.85</v>
@@ -3565,7 +3565,7 @@
         <v>2.6</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001244750672668293</v>
+        <v>0.2441471571906355</v>
       </c>
       <c r="D104" t="n">
         <v>9.875</v>
@@ -3603,7 +3603,7 @@
         <v>2.8</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00165406907772091</v>
+        <v>0.3608107650069484</v>
       </c>
       <c r="D105" t="n">
         <v>9.9</v>
@@ -3641,7 +3641,7 @@
         <v>2.9</v>
       </c>
       <c r="C106" t="n">
-        <v>0.001988891611533121</v>
+        <v>0.4016989300008168</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -3679,7 +3679,7 @@
         <v>2.8</v>
       </c>
       <c r="C107" t="n">
-        <v>0.001749250573091166</v>
+        <v>0.3972138952565685</v>
       </c>
       <c r="D107" t="n">
         <v>10</v>
@@ -3717,7 +3717,7 @@
         <v>2.6</v>
       </c>
       <c r="C108" t="n">
-        <v>0.001910611998794091</v>
+        <v>0.4153979499547784</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
@@ -3755,7 +3755,7 @@
         <v>2.6</v>
       </c>
       <c r="C109" t="n">
-        <v>0.001662076786003564</v>
+        <v>0.3490361250607484</v>
       </c>
       <c r="D109" t="n">
         <v>10.1</v>
@@ -3793,7 +3793,7 @@
         <v>2.8</v>
       </c>
       <c r="C110" t="n">
-        <v>0.001888317413666422</v>
+        <v>0.4138133725202057</v>
       </c>
       <c r="D110" t="n">
         <v>10.1</v>
@@ -3831,7 +3831,7 @@
         <v>2.6</v>
       </c>
       <c r="C111" t="n">
-        <v>0.001950341022300559</v>
+        <v>0.3502567246532302</v>
       </c>
       <c r="D111" t="n">
         <v>10.1</v>
@@ -3869,7 +3869,7 @@
         <v>2.5</v>
       </c>
       <c r="C112" t="n">
-        <v>0.002109133944799019</v>
+        <v>0.2689885455851896</v>
       </c>
       <c r="D112" t="n">
         <v>10.1</v>
@@ -3907,7 +3907,7 @@
         <v>2.4</v>
       </c>
       <c r="C113" t="n">
-        <v>0.002508818123105967</v>
+        <v>0.3330518157881663</v>
       </c>
       <c r="D113" t="n">
         <v>10.2</v>
@@ -3945,7 +3945,7 @@
         <v>2.5</v>
       </c>
       <c r="C114" t="n">
-        <v>0.001988803194613005</v>
+        <v>0.3759542731863916</v>
       </c>
       <c r="D114" t="n">
         <v>10.2</v>
@@ -3983,7 +3983,7 @@
         <v>2.4</v>
       </c>
       <c r="C115" t="n">
-        <v>0.001885667436833868</v>
+        <v>0.3425504956398599</v>
       </c>
       <c r="D115" t="n">
         <v>10.2</v>
@@ -4021,7 +4021,7 @@
         <v>2.6</v>
       </c>
       <c r="C116" t="n">
-        <v>0.00127055889001481</v>
+        <v>0.2787174890222673</v>
       </c>
       <c r="D116" t="n">
         <v>10.2</v>
@@ -4059,7 +4059,7 @@
         <v>2.9</v>
       </c>
       <c r="C117" t="n">
-        <v>0.001688284223882701</v>
+        <v>0.3311363315945298</v>
       </c>
       <c r="D117" t="n">
         <v>10.3</v>
@@ -4097,7 +4097,7 @@
         <v>3.3</v>
       </c>
       <c r="C118" t="n">
-        <v>0.002051171791012686</v>
+        <v>0.422618791657708</v>
       </c>
       <c r="D118" t="n">
         <v>10.3</v>
@@ -4135,7 +4135,7 @@
         <v>3.1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.00187860711933997</v>
+        <v>0.4089940736723864</v>
       </c>
       <c r="D119" t="n">
         <v>10.3</v>
@@ -4173,7 +4173,7 @@
         <v>3.2</v>
       </c>
       <c r="C120" t="n">
-        <v>0.002005336783375111</v>
+        <v>0.3986819762270559</v>
       </c>
       <c r="D120" t="n">
         <v>10.4</v>
@@ -4211,7 +4211,7 @@
         <v>3.2</v>
       </c>
       <c r="C121" t="n">
-        <v>0.001759757857318833</v>
+        <v>0.3567029176785274</v>
       </c>
       <c r="D121" t="n">
         <v>10.4</v>
@@ -4249,7 +4249,7 @@
         <v>3.3</v>
       </c>
       <c r="C122" t="n">
-        <v>0.00196078431372549</v>
+        <v>0.4356653904165216</v>
       </c>
       <c r="D122" t="n">
         <v>10.4</v>
@@ -4287,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>0.002197802197802198</v>
+        <v>0.4950308655487938</v>
       </c>
       <c r="D123" t="n">
         <v>10.5</v>
@@ -4325,7 +4325,7 @@
         <v>2.9</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00213472485768501</v>
+        <v>0.4290150077626358</v>
       </c>
       <c r="D124" t="n">
         <v>10.5</v>
@@ -4363,7 +4363,7 @@
         <v>2.6</v>
       </c>
       <c r="C125" t="n">
-        <v>0.002390648205816126</v>
+        <v>0.5090787141282997</v>
       </c>
       <c r="D125" t="n">
         <v>10.5</v>
@@ -4401,7 +4401,7 @@
         <v>2.7</v>
       </c>
       <c r="C126" t="n">
-        <v>0.00214597789771267</v>
+        <v>0.4330934635483595</v>
       </c>
       <c r="D126" t="n">
         <v>10.5</v>
@@ -4439,7 +4439,7 @@
         <v>2.8</v>
       </c>
       <c r="C127" t="n">
-        <v>0.001846955874138894</v>
+        <v>0.377583317817911</v>
       </c>
       <c r="D127" t="n">
         <v>10.6</v>
@@ -4477,7 +4477,7 @@
         <v>3.1</v>
       </c>
       <c r="C128" t="n">
-        <v>0.001322912063632346</v>
+        <v>0.2989394608926204</v>
       </c>
       <c r="D128" t="n">
         <v>10.6</v>
@@ -4515,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>0.001819563152896486</v>
+        <v>0.3526685660018993</v>
       </c>
       <c r="D129" t="n">
         <v>10.6</v>
@@ -4553,7 +4553,7 @@
         <v>4.6</v>
       </c>
       <c r="C130" t="n">
-        <v>0.001973738541580642</v>
+        <v>0.3551077710793625</v>
       </c>
       <c r="D130" t="n">
         <v>10.7</v>
@@ -4591,7 +4591,7 @@
         <v>3.7</v>
       </c>
       <c r="C131" t="n">
-        <v>0.001773642509268009</v>
+        <v>0.3704659446100167</v>
       </c>
       <c r="D131" t="n">
         <v>10.7</v>
@@ -4629,7 +4629,7 @@
         <v>3.1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.001838573267144696</v>
+        <v>0.347306490163633</v>
       </c>
       <c r="D132" t="n">
         <v>10.7</v>
@@ -4667,7 +4667,7 @@
         <v>2.6</v>
       </c>
       <c r="C133" t="n">
-        <v>0.001785399244910201</v>
+        <v>0.3277936558343036</v>
       </c>
       <c r="D133" t="n">
         <v>10.8</v>
@@ -4705,7 +4705,7 @@
         <v>2.9</v>
       </c>
       <c r="C134" t="n">
-        <v>0.001794148748678181</v>
+        <v>0.3625308424391963</v>
       </c>
       <c r="D134" t="n">
         <v>10.8</v>
@@ -4743,7 +4743,7 @@
         <v>3.2</v>
       </c>
       <c r="C135" t="n">
-        <v>0.002061437325001015</v>
+        <v>0.4009252120277564</v>
       </c>
       <c r="D135" t="n">
         <v>10.8</v>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001903888060557403</v>
+        <v>0.3718698627518446</v>
       </c>
       <c r="D136" t="n">
         <v>10.8</v>
@@ -4819,7 +4819,7 @@
         <v>3.3</v>
       </c>
       <c r="C137" t="n">
-        <v>0.00236555078143444</v>
+        <v>0.4361867888002267</v>
       </c>
       <c r="D137" t="n">
         <v>10.8</v>
@@ -4857,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>0.002068196829590489</v>
+        <v>0.4064564068692206</v>
       </c>
       <c r="D138" t="n">
         <v>10.9</v>
@@ -4895,7 +4895,7 @@
         <v>2.5</v>
       </c>
       <c r="C139" t="n">
-        <v>0.001642982543310477</v>
+        <v>0.3571168306336745</v>
       </c>
       <c r="D139" t="n">
         <v>10.9</v>
@@ -4933,7 +4933,7 @@
         <v>3.2</v>
       </c>
       <c r="C140" t="n">
-        <v>0.001284802246417124</v>
+        <v>0.2725635116162017</v>
       </c>
       <c r="D140" t="n">
         <v>10.9</v>
@@ -4971,7 +4971,7 @@
         <v>3.6</v>
       </c>
       <c r="C141" t="n">
-        <v>0.001773314417979542</v>
+        <v>0.3344657656984992</v>
       </c>
       <c r="D141" t="n">
         <v>10.9</v>
@@ -5009,7 +5009,7 @@
         <v>4.5</v>
       </c>
       <c r="C142" t="n">
-        <v>0.002037617554858934</v>
+        <v>0.3508430060154198</v>
       </c>
       <c r="D142" t="n">
         <v>10.9</v>
@@ -5047,7 +5047,7 @@
         <v>4.1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.001776109165734089</v>
+        <v>0.3484350745460453</v>
       </c>
       <c r="D143" t="n">
         <v>11</v>
@@ -5085,7 +5085,7 @@
         <v>3.3</v>
       </c>
       <c r="C144" t="n">
-        <v>0.001958570204812709</v>
+        <v>0.3299587259559225</v>
       </c>
       <c r="D144" t="n">
         <v>11</v>
@@ -5123,7 +5123,7 @@
         <v>2.9</v>
       </c>
       <c r="C145" t="n">
-        <v>0.001701901342906528</v>
+        <v>0.3147187873952932</v>
       </c>
       <c r="D145" t="n">
         <v>11</v>
@@ -5161,7 +5161,7 @@
         <v>3.1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.001843483250842838</v>
+        <v>0.35076393372068</v>
       </c>
       <c r="D146" t="n">
         <v>11</v>
@@ -5199,7 +5199,7 @@
         <v>2.9</v>
       </c>
       <c r="C147" t="n">
-        <v>0.002168264110756123</v>
+        <v>0.4055378061767838</v>
       </c>
       <c r="D147" t="n">
         <v>11.1</v>
@@ -5237,7 +5237,7 @@
         <v>2.6</v>
       </c>
       <c r="C148" t="n">
-        <v>0.001863492653896225</v>
+        <v>0.3624697786870002</v>
       </c>
       <c r="D148" t="n">
         <v>11.1</v>
@@ -5275,7 +5275,7 @@
         <v>2.7</v>
       </c>
       <c r="C149" t="n">
-        <v>0.002358803986710963</v>
+        <v>0.4733270052206929</v>
       </c>
       <c r="D149" t="n">
         <v>11.1</v>
@@ -5313,7 +5313,7 @@
         <v>2.5</v>
       </c>
       <c r="C150" t="n">
-        <v>0.00195040939286266</v>
+        <v>0.3734358102888923</v>
       </c>
       <c r="D150" t="n">
         <v>11.2</v>
@@ -5351,7 +5351,7 @@
         <v>2.5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001592093555357824</v>
+        <v>0.3309711452904538</v>
       </c>
       <c r="D151" t="n">
         <v>11.2</v>
@@ -5389,7 +5389,7 @@
         <v>2.8</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001263097831725283</v>
+        <v>0.2683629007158419</v>
       </c>
       <c r="D152" t="n">
         <v>11.2</v>
@@ -5427,7 +5427,7 @@
         <v>3.3</v>
       </c>
       <c r="C153" t="n">
-        <v>0.001644004521012433</v>
+        <v>0.308696098914272</v>
       </c>
       <c r="D153" t="n">
         <v>11.3</v>
@@ -5465,7 +5465,7 @@
         <v>4.3</v>
       </c>
       <c r="C154" t="n">
-        <v>0.001893717543243138</v>
+        <v>0.3669517004412167</v>
       </c>
       <c r="D154" t="n">
         <v>11.4</v>
@@ -5503,7 +5503,7 @@
         <v>3.5</v>
       </c>
       <c r="C155" t="n">
-        <v>0.001762991398308097</v>
+        <v>0.3380607094618611</v>
       </c>
       <c r="D155" t="n">
         <v>11.4</v>
@@ -5541,7 +5541,7 @@
         <v>3.2</v>
       </c>
       <c r="C156" t="n">
-        <v>0.001827864133563615</v>
+        <v>0.3067069660333909</v>
       </c>
       <c r="D156" t="n">
         <v>11.4</v>
@@ -5579,7 +5579,7 @@
         <v>2.9</v>
       </c>
       <c r="C157" t="n">
-        <v>0.001867400115807759</v>
+        <v>0.3660610885929357</v>
       </c>
       <c r="D157" t="n">
         <v>11.5</v>
@@ -5617,7 +5617,7 @@
         <v>2.9</v>
       </c>
       <c r="C158" t="n">
-        <v>0.001980083817140221</v>
+        <v>0.3730247222115421</v>
       </c>
       <c r="D158" t="n">
         <v>11.5</v>
@@ -5655,7 +5655,7 @@
         <v>2.7</v>
       </c>
       <c r="C159" t="n">
-        <v>0.002092804193799402</v>
+        <v>0.4160216242781669</v>
       </c>
       <c r="D159" t="n">
         <v>11.5</v>
@@ -5693,7 +5693,7 @@
         <v>2.7</v>
       </c>
       <c r="C160" t="n">
-        <v>0.002060924542244848</v>
+        <v>0.4093111092864767</v>
       </c>
       <c r="D160" t="n">
         <v>11.6</v>
@@ -5731,7 +5731,7 @@
         <v>2.6</v>
       </c>
       <c r="C161" t="n">
-        <v>0.002666807209866132</v>
+        <v>0.4815537050700959</v>
       </c>
       <c r="D161" t="n">
         <v>11.6</v>
@@ -5769,7 +5769,7 @@
         <v>2.6</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001865781710914454</v>
+        <v>0.3676991150442478</v>
       </c>
       <c r="D162" t="n">
         <v>11.7</v>
@@ -5807,7 +5807,7 @@
         <v>2.4</v>
       </c>
       <c r="C163" t="n">
-        <v>0.001645955605101807</v>
+        <v>0.3250926259877373</v>
       </c>
       <c r="D163" t="n">
         <v>11.7</v>
@@ -5845,7 +5845,7 @@
         <v>2.4</v>
       </c>
       <c r="C164" t="n">
-        <v>0.001304580766139834</v>
+        <v>0.2384409322260916</v>
       </c>
       <c r="D164" t="n">
         <v>11.7</v>
@@ -5883,7 +5883,7 @@
         <v>3.1</v>
       </c>
       <c r="C165" t="n">
-        <v>0.001666030335635695</v>
+        <v>0.3252577140675437</v>
       </c>
       <c r="D165" t="n">
         <v>11.8</v>
@@ -5921,7 +5921,7 @@
         <v>3.6</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00200332502078138</v>
+        <v>0.3510806317539484</v>
       </c>
       <c r="D166" t="n">
         <v>11.8</v>
@@ -5959,7 +5959,7 @@
         <v>3.3</v>
       </c>
       <c r="C167" t="n">
-        <v>0.00208704504963095</v>
+        <v>0.3617544752693646</v>
       </c>
       <c r="D167" t="n">
         <v>11.9</v>
@@ -5997,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>0.002075386571510603</v>
+        <v>0.3772199663672532</v>
       </c>
       <c r="D168" t="n">
         <v>11.9</v>
@@ -6035,7 +6035,7 @@
         <v>2.9</v>
       </c>
       <c r="C169" t="n">
-        <v>0.001663639901413932</v>
+        <v>0.3329225580490336</v>
       </c>
       <c r="D169" t="n">
         <v>12</v>
@@ -6073,7 +6073,7 @@
         <v>2.8</v>
       </c>
       <c r="C170" t="n">
-        <v>0.001964524127407973</v>
+        <v>0.3498760251764257</v>
       </c>
       <c r="D170" t="n">
         <v>12</v>
@@ -6111,7 +6111,7 @@
         <v>2.7</v>
       </c>
       <c r="C171" t="n">
-        <v>0.001885823304960376</v>
+        <v>0.3958394481948929</v>
       </c>
       <c r="D171" t="n">
         <v>12</v>
@@ -6149,7 +6149,7 @@
         <v>2.6</v>
       </c>
       <c r="C172" t="n">
-        <v>0.00198081572174998</v>
+        <v>0.3831786633393122</v>
       </c>
       <c r="D172" t="n">
         <v>12.1</v>
@@ -6187,7 +6187,7 @@
         <v>2.4</v>
       </c>
       <c r="C173" t="n">
-        <v>0.002656477438136827</v>
+        <v>0.4871594926180079</v>
       </c>
       <c r="D173" t="n">
         <v>12.1</v>
@@ -6225,7 +6225,7 @@
         <v>2.4</v>
       </c>
       <c r="C174" t="n">
-        <v>0.001894317048853439</v>
+        <v>0.3910490749972305</v>
       </c>
       <c r="D174" t="n">
         <v>12.1</v>
@@ -6263,7 +6263,7 @@
         <v>2.4</v>
       </c>
       <c r="C175" t="n">
-        <v>0.001797650038696968</v>
+        <v>0.342714416379371</v>
       </c>
       <c r="D175" t="n">
         <v>12.2</v>
@@ -6301,7 +6301,7 @@
         <v>2.8</v>
       </c>
       <c r="C176" t="n">
-        <v>0.001330293683787046</v>
+        <v>0.2679898082338742</v>
       </c>
       <c r="D176" t="n">
         <v>12.2</v>
@@ -6339,7 +6339,7 @@
         <v>3.4</v>
       </c>
       <c r="C177" t="n">
-        <v>0.001826280623608018</v>
+        <v>0.3367483296213808</v>
       </c>
       <c r="D177" t="n">
         <v>12.3</v>
@@ -6377,7 +6377,7 @@
         <v>4.8</v>
       </c>
       <c r="C178" t="n">
-        <v>0.002004552170267141</v>
+        <v>0.3701233877730304</v>
       </c>
       <c r="D178" t="n">
         <v>12.3</v>
@@ -6415,7 +6415,7 @@
         <v>3.8</v>
       </c>
       <c r="C179" t="n">
-        <v>0.002032975828397631</v>
+        <v>0.3790619497358732</v>
       </c>
       <c r="D179" t="n">
         <v>12.4</v>
@@ -6453,7 +6453,7 @@
         <v>3.8</v>
       </c>
       <c r="C180" t="n">
-        <v>0.002181116563902521</v>
+        <v>0.4016610041525104</v>
       </c>
       <c r="D180" t="n">
         <v>12.4</v>
@@ -6491,7 +6491,7 @@
         <v>3.7</v>
       </c>
       <c r="C181" t="n">
-        <v>0.001846490608671092</v>
+        <v>0.3478322270865697</v>
       </c>
       <c r="D181" t="n">
         <v>12.4</v>
@@ -6529,7 +6529,7 @@
         <v>3.6</v>
       </c>
       <c r="C182" t="n">
-        <v>0.002113840816491186</v>
+        <v>0.3888014845294284</v>
       </c>
       <c r="D182" t="n">
         <v>12.5</v>
@@ -6567,7 +6567,7 @@
         <v>3.4</v>
       </c>
       <c r="C183" t="n">
-        <v>0.002098770376897505</v>
+        <v>0.4142267793487404</v>
       </c>
       <c r="D183" t="n">
         <v>12.5</v>
@@ -6605,7 +6605,7 @@
         <v>3.1</v>
       </c>
       <c r="C184" t="n">
-        <v>0.002332466134385933</v>
+        <v>0.4109625908316139</v>
       </c>
       <c r="D184" t="n">
         <v>12.6</v>
@@ -6643,7 +6643,7 @@
         <v>2.9</v>
       </c>
       <c r="C185" t="n">
-        <v>0.002690675773569285</v>
+        <v>0.5116940908620511</v>
       </c>
       <c r="D185" t="n">
         <v>12.6</v>
@@ -6681,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="n">
-        <v>0.001921233129286821</v>
+        <v>0.3697544066671584</v>
       </c>
       <c r="D186" t="n">
         <v>12.6</v>
@@ -6719,7 +6719,7 @@
         <v>2.9</v>
       </c>
       <c r="C187" t="n">
-        <v>0.002203203118379799</v>
+        <v>0.3949241589695788</v>
       </c>
       <c r="D187" t="n">
         <v>12.7</v>
@@ -6757,7 +6757,7 @@
         <v>3.3</v>
       </c>
       <c r="C188" t="n">
-        <v>0.001473377097009482</v>
+        <v>0.2885485047410649</v>
       </c>
       <c r="D188" t="n">
         <v>12.7</v>
@@ -6795,7 +6795,7 @@
         <v>3.7</v>
       </c>
       <c r="C189" t="n">
-        <v>0.001760811381884772</v>
+        <v>0.3270178898436399</v>
       </c>
       <c r="D189" t="n">
         <v>12.8</v>
@@ -6833,7 +6833,7 @@
         <v>4.8</v>
       </c>
       <c r="C190" t="n">
-        <v>0.002429227237949502</v>
+        <v>0.3719873756694721</v>
       </c>
       <c r="D190" t="n">
         <v>12.8</v>
@@ -6871,7 +6871,7 @@
         <v>4.1</v>
       </c>
       <c r="C191" t="n">
-        <v>0.001878883700408133</v>
+        <v>0.3389712100599331</v>
       </c>
       <c r="D191" t="n">
         <v>12.8</v>
@@ -6909,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="C192" t="n">
-        <v>0.002103855040739389</v>
+        <v>0.3574526733957599</v>
       </c>
       <c r="D192" t="n">
         <v>12.9</v>
@@ -6947,7 +6947,7 @@
         <v>3.8</v>
       </c>
       <c r="C193" t="n">
-        <v>0.001885779718027625</v>
+        <v>0.297609675803335</v>
       </c>
       <c r="D193" t="n">
         <v>12.9</v>
@@ -6985,7 +6985,7 @@
         <v>3.7</v>
       </c>
       <c r="C194" t="n">
-        <v>0.001974791487451846</v>
+        <v>0.3740135392901223</v>
       </c>
       <c r="D194" t="n">
         <v>13</v>
@@ -7023,7 +7023,7 @@
         <v>3.4</v>
       </c>
       <c r="C195" t="n">
-        <v>0.002235798226634424</v>
+        <v>0.4037164312078401</v>
       </c>
       <c r="D195" t="n">
         <v>13</v>
@@ -7061,7 +7061,7 @@
         <v>3.2</v>
       </c>
       <c r="C196" t="n">
-        <v>0.002392191008661381</v>
+        <v>0.397873607992301</v>
       </c>
       <c r="D196" t="n">
         <v>13</v>
@@ -7099,7 +7099,7 @@
         <v>2.9</v>
       </c>
       <c r="C197" t="n">
-        <v>0.002763012473027735</v>
+        <v>0.463607178569549</v>
       </c>
       <c r="D197" t="n">
         <v>13.1</v>
@@ -7137,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="C198" t="n">
-        <v>0.002259327796187116</v>
+        <v>0.4212678056547747</v>
       </c>
       <c r="D198" t="n">
         <v>13.1</v>
@@ -7175,7 +7175,7 @@
         <v>2.8</v>
       </c>
       <c r="C199" t="n">
-        <v>0.002007908780281798</v>
+        <v>0.3492148807924137</v>
       </c>
       <c r="D199" t="n">
         <v>13.1</v>
@@ -7213,7 +7213,7 @@
         <v>3.1</v>
       </c>
       <c r="C200" t="n">
-        <v>0.001540818165435213</v>
+        <v>0.2956088184057187</v>
       </c>
       <c r="D200" t="n">
         <v>13.1</v>
@@ -7251,7 +7251,7 @@
         <v>3.6</v>
       </c>
       <c r="C201" t="n">
-        <v>0.002111525409527002</v>
+        <v>0.3480665298085382</v>
       </c>
       <c r="D201" t="n">
         <v>13.2</v>
@@ -7289,7 +7289,7 @@
         <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>0.002278188128504049</v>
+        <v>0.3589036219631574</v>
       </c>
       <c r="D202" t="n">
         <v>13.2</v>
@@ -7327,7 +7327,7 @@
         <v>4</v>
       </c>
       <c r="C203" t="n">
-        <v>0.002056740426553559</v>
+        <v>0.3583690128446241</v>
       </c>
       <c r="D203" t="n">
         <v>13.3</v>
@@ -7365,7 +7365,7 @@
         <v>3.9</v>
       </c>
       <c r="C204" t="n">
-        <v>0.002285063911749256</v>
+        <v>0.3637278935387848</v>
       </c>
       <c r="D204" t="n">
         <v>13.3</v>
@@ -7403,7 +7403,7 @@
         <v>3.5</v>
       </c>
       <c r="C205" t="n">
-        <v>0.002071481815685197</v>
+        <v>0.3597630350347208</v>
       </c>
       <c r="D205" t="n">
         <v>13.3</v>
@@ -7441,7 +7441,7 @@
         <v>3.4</v>
       </c>
       <c r="C206" t="n">
-        <v>0.002182417129915586</v>
+        <v>0.3794523368334363</v>
       </c>
       <c r="D206" t="n">
         <v>13.3</v>
@@ -7479,7 +7479,7 @@
         <v>3.2</v>
       </c>
       <c r="C207" t="n">
-        <v>0.002495981847404746</v>
+        <v>0.4096624751819987</v>
       </c>
       <c r="D207" t="n">
         <v>13.4</v>
@@ -7517,7 +7517,7 @@
         <v>3.3</v>
       </c>
       <c r="C208" t="n">
-        <v>0.002289612025893905</v>
+        <v>0.4078289959595082</v>
       </c>
       <c r="D208" t="n">
         <v>13.4</v>
@@ -7555,7 +7555,7 @@
         <v>3.4</v>
       </c>
       <c r="C209" t="n">
-        <v>0.002966841186736475</v>
+        <v>0.5126949276586162</v>
       </c>
       <c r="D209" t="n">
         <v>13.4</v>
@@ -7593,7 +7593,7 @@
         <v>3.3</v>
       </c>
       <c r="C210" t="n">
-        <v>0.002400801785795636</v>
+        <v>0.4073618513962917</v>
       </c>
       <c r="D210" t="n">
         <v>13.5</v>
@@ -7631,7 +7631,7 @@
         <v>3.1</v>
       </c>
       <c r="C211" t="n">
-        <v>0.002072089816820957</v>
+        <v>0.3919637581248769</v>
       </c>
       <c r="D211" t="n">
         <v>13.5</v>
@@ -7669,7 +7669,7 @@
         <v>3.3</v>
       </c>
       <c r="C212" t="n">
-        <v>0.001812550593038398</v>
+        <v>0.3256255939182768</v>
       </c>
       <c r="D212" t="n">
         <v>13.5</v>
@@ -7707,7 +7707,7 @@
         <v>3.8</v>
       </c>
       <c r="C213" t="n">
-        <v>0.002126231914447474</v>
+        <v>0.3397357936674355</v>
       </c>
       <c r="D213" t="n">
         <v>13.6</v>
@@ -7745,7 +7745,7 @@
         <v>5.2</v>
       </c>
       <c r="C214" t="n">
-        <v>0.002404539323752384</v>
+        <v>0.4127249895353705</v>
       </c>
       <c r="D214" t="n">
         <v>13.7</v>
@@ -7783,7 +7783,7 @@
         <v>4.2</v>
       </c>
       <c r="C215" t="n">
-        <v>0.002245598969514813</v>
+        <v>0.4072992700729927</v>
       </c>
       <c r="D215" t="n">
         <v>13.7</v>
@@ -7821,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="n">
-        <v>0.002639968121139669</v>
+        <v>0.3940526001195457</v>
       </c>
       <c r="D216" t="n">
         <v>13.8</v>
@@ -7859,7 +7859,7 @@
         <v>3.4</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0019759322537513</v>
+        <v>0.3450081711484178</v>
       </c>
       <c r="D217" t="n">
         <v>13.9</v>
@@ -7897,7 +7897,7 @@
         <v>3.6</v>
       </c>
       <c r="C218" t="n">
-        <v>0.002395478198456846</v>
+        <v>0.4024313655122914</v>
       </c>
       <c r="D218" t="n">
         <v>13.9</v>
@@ -7935,7 +7935,7 @@
         <v>3.2</v>
       </c>
       <c r="C219" t="n">
-        <v>0.002810588483442312</v>
+        <v>0.4320818392744147</v>
       </c>
       <c r="D219" t="n">
         <v>14</v>
@@ -7973,7 +7973,7 @@
         <v>3.3</v>
       </c>
       <c r="C220" t="n">
-        <v>0.002646003587801475</v>
+        <v>0.4724935220251146</v>
       </c>
       <c r="D220" t="n">
         <v>14</v>
@@ -8011,7 +8011,7 @@
         <v>2.9</v>
       </c>
       <c r="C221" t="n">
-        <v>0.002966597892154129</v>
+        <v>0.5241733117715943</v>
       </c>
       <c r="D221" t="n">
         <v>14.1</v>
@@ -8049,7 +8049,7 @@
         <v>2.9</v>
       </c>
       <c r="C222" t="n">
-        <v>0.003066635923449389</v>
+        <v>0.4813811390362001</v>
       </c>
       <c r="D222" t="n">
         <v>14.1</v>
@@ -8087,7 +8087,7 @@
         <v>2.9</v>
       </c>
       <c r="C223" t="n">
-        <v>0.002151934711112916</v>
+        <v>0.3710666287709611</v>
       </c>
       <c r="D223" t="n">
         <v>14.2</v>
@@ -8125,7 +8125,7 @@
         <v>3</v>
       </c>
       <c r="C224" t="n">
-        <v>0.001881457313757477</v>
+        <v>0.3202465107848468</v>
       </c>
       <c r="D224" t="n">
         <v>14.2</v>
@@ -8163,7 +8163,7 @@
         <v>3.8</v>
       </c>
       <c r="C225" t="n">
-        <v>0.002096840377513336</v>
+        <v>0.3635617562576939</v>
       </c>
       <c r="D225" t="n">
         <v>14.3</v>
@@ -8201,7 +8201,7 @@
         <v>5</v>
       </c>
       <c r="C226" t="n">
-        <v>0.002709385521885522</v>
+        <v>0.4063552188552189</v>
       </c>
       <c r="D226" t="n">
         <v>14.3</v>
@@ -8239,7 +8239,7 @@
         <v>4.4</v>
       </c>
       <c r="C227" t="n">
-        <v>0.002309752777411848</v>
+        <v>0.4003425108681333</v>
       </c>
       <c r="D227" t="n">
         <v>14.4</v>
@@ -8277,7 +8277,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="n">
-        <v>0.002581271227559437</v>
+        <v>0.4213973799126637</v>
       </c>
       <c r="D228" t="n">
         <v>14.4</v>
@@ -8315,7 +8315,7 @@
         <v>3.7</v>
       </c>
       <c r="C229" t="n">
-        <v>0.002144343094895183</v>
+        <v>0.3883021283405345</v>
       </c>
       <c r="D229" t="n">
         <v>14.5</v>
@@ -8353,7 +8353,7 @@
         <v>3.6</v>
       </c>
       <c r="C230" t="n">
-        <v>0.002605531295487627</v>
+        <v>0.4170305676855895</v>
       </c>
       <c r="D230" t="n">
         <v>14.5</v>
@@ -8391,7 +8391,7 @@
         <v>3.6</v>
       </c>
       <c r="C231" t="n">
-        <v>0.002662883878353492</v>
+        <v>0.4642377183813648</v>
       </c>
       <c r="D231" t="n">
         <v>14.5</v>
@@ -8429,7 +8429,7 @@
         <v>3.8</v>
       </c>
       <c r="C232" t="n">
-        <v>0.002755233910571207</v>
+        <v>0.4803825277849574</v>
       </c>
       <c r="D232" t="n">
         <v>14.6</v>
@@ -8467,7 +8467,7 @@
         <v>3.5</v>
       </c>
       <c r="C233" t="n">
-        <v>0.003729782487451199</v>
+        <v>0.5455939765755716</v>
       </c>
       <c r="D233" t="n">
         <v>14.6</v>
@@ -8505,7 +8505,7 @@
         <v>3.3</v>
       </c>
       <c r="C234" t="n">
-        <v>0.002443265007320644</v>
+        <v>0.4826134699853587</v>
       </c>
       <c r="D234" t="n">
         <v>14.7</v>
@@ -8543,7 +8543,7 @@
         <v>3</v>
       </c>
       <c r="C235" t="n">
-        <v>0.002342002543748081</v>
+        <v>0.4423928775053726</v>
       </c>
       <c r="D235" t="n">
         <v>14.7</v>
@@ -8581,7 +8581,7 @@
         <v>3.1</v>
       </c>
       <c r="C236" t="n">
-        <v>0.001931538518905213</v>
+        <v>0.3324632709374301</v>
       </c>
       <c r="D236" t="n">
         <v>14.8</v>
@@ -8619,7 +8619,7 @@
         <v>4.5</v>
       </c>
       <c r="C237" t="n">
-        <v>0.002424270843102317</v>
+        <v>0.4544218325049236</v>
       </c>
       <c r="D237" t="n">
         <v>14.8</v>
@@ -8657,7 +8657,7 @@
         <v>5</v>
       </c>
       <c r="C238" t="n">
-        <v>0.002862794659047201</v>
+        <v>0.4507939996703115</v>
       </c>
       <c r="D238" t="n">
         <v>14.9</v>
@@ -8695,7 +8695,7 @@
         <v>4.1</v>
       </c>
       <c r="C239" t="n">
-        <v>0.002700905417156888</v>
+        <v>0.4640135045270858</v>
       </c>
       <c r="D239" t="n">
         <v>14.9</v>
@@ -8733,7 +8733,7 @@
         <v>4.1</v>
       </c>
       <c r="C240" t="n">
-        <v>0.002676520523319684</v>
+        <v>0.4761809647458304</v>
       </c>
       <c r="D240" t="n">
         <v>15</v>
@@ -8771,7 +8771,7 @@
         <v>3.7</v>
       </c>
       <c r="C241" t="n">
-        <v>0.002351920156216099</v>
+        <v>0.4279019310045563</v>
       </c>
       <c r="D241" t="n">
         <v>15.1</v>
@@ -8809,7 +8809,7 @@
         <v>3.7</v>
       </c>
       <c r="C242" t="n">
-        <v>0.003031991974138892</v>
+        <v>0.4837810723442202</v>
       </c>
       <c r="D242" t="n">
         <v>15.1</v>
@@ -8847,7 +8847,7 @@
         <v>3.7</v>
       </c>
       <c r="C243" t="n">
-        <v>0.002826154969235582</v>
+        <v>0.4952028365835854</v>
       </c>
       <c r="D243" t="n">
         <v>15.2</v>
@@ -8885,7 +8885,7 @@
         <v>2.8</v>
       </c>
       <c r="C244" t="n">
-        <v>0.002923211169284468</v>
+        <v>0.493782722513089</v>
       </c>
       <c r="D244" t="n">
         <v>15.2</v>
@@ -8923,7 +8923,7 @@
         <v>2.8</v>
       </c>
       <c r="C245" t="n">
-        <v>0.003411824281554627</v>
+        <v>0.5703253576402076</v>
       </c>
       <c r="D245" t="n">
         <v>15.3</v>
@@ -8961,7 +8961,7 @@
         <v>2.8</v>
       </c>
       <c r="C246" t="n">
-        <v>0.002661484724750332</v>
+        <v>0.4850199242386973</v>
       </c>
       <c r="D246" t="n">
         <v>15.4</v>
@@ -8999,7 +8999,7 @@
         <v>2.7</v>
       </c>
       <c r="C247" t="n">
-        <v>0.002635689183912534</v>
+        <v>0.4489945333853964</v>
       </c>
       <c r="D247" t="n">
         <v>15.4</v>
@@ -9037,7 +9037,7 @@
         <v>3.4</v>
       </c>
       <c r="C248" t="n">
-        <v>0.002128683102826218</v>
+        <v>0.367568651032271</v>
       </c>
       <c r="D248" t="n">
         <v>15.5</v>
@@ -9075,7 +9075,7 @@
         <v>4.4</v>
       </c>
       <c r="C249" t="n">
-        <v>0.002669155860537868</v>
+        <v>0.4455320651899692</v>
       </c>
       <c r="D249" t="n">
         <v>15.6</v>
@@ -9113,7 +9113,7 @@
         <v>4.2</v>
       </c>
       <c r="C250" t="n">
-        <v>0.002769198555200754</v>
+        <v>0.4309270795163063</v>
       </c>
       <c r="D250" t="n">
         <v>15.7</v>
@@ -9151,7 +9151,7 @@
         <v>4.4</v>
       </c>
       <c r="C251" t="n">
-        <v>0.002691393739022626</v>
+        <v>0.3768984399214795</v>
       </c>
       <c r="D251" t="n">
         <v>15.8</v>
@@ -9189,7 +9189,7 @@
         <v>4.2</v>
       </c>
       <c r="C252" t="n">
-        <v>0.003318654668453635</v>
+        <v>0.5907843512668326</v>
       </c>
       <c r="D252" t="n">
         <v>15.9</v>
@@ -9227,7 +9227,7 @@
         <v>4.5</v>
       </c>
       <c r="C253" t="n">
-        <v>0.002932098765432099</v>
+        <v>0.4920083774250441</v>
       </c>
       <c r="D253" t="n">
         <v>15.9</v>
@@ -9265,7 +9265,7 @@
         <v>4.4</v>
       </c>
       <c r="C254" t="n">
-        <v>0.003113361266294227</v>
+        <v>0.5106494413407822</v>
       </c>
       <c r="D254" t="n">
         <v>16</v>
@@ -9303,7 +9303,7 @@
         <v>4.1</v>
       </c>
       <c r="C255" t="n">
-        <v>0.003126463700234192</v>
+        <v>0.5730679156908665</v>
       </c>
       <c r="D255" t="n">
         <v>16.1</v>
@@ -9341,7 +9341,7 @@
         <v>3.2</v>
       </c>
       <c r="C256" t="n">
-        <v>0.003505854177754125</v>
+        <v>0.562466737626397</v>
       </c>
       <c r="D256" t="n">
         <v>16.1</v>
@@ -9379,7 +9379,7 @@
         <v>3.4</v>
       </c>
       <c r="C257" t="n">
-        <v>0.003439049856434351</v>
+        <v>0.6222918298094492</v>
       </c>
       <c r="D257" t="n">
         <v>16.2</v>
@@ -9417,7 +9417,7 @@
         <v>3.5</v>
       </c>
       <c r="C258" t="n">
-        <v>0.003211315485946701</v>
+        <v>0.5674133430461968</v>
       </c>
       <c r="D258" t="n">
         <v>16.3</v>
@@ -9455,7 +9455,7 @@
         <v>3.5</v>
       </c>
       <c r="C259" t="n">
-        <v>0.002932277053419156</v>
+        <v>0.4883094019915278</v>
       </c>
       <c r="D259" t="n">
         <v>16.3</v>
@@ -9493,7 +9493,7 @@
         <v>4.6</v>
       </c>
       <c r="C260" t="n">
-        <v>0.002339762410226297</v>
+        <v>0.414698044175437</v>
       </c>
       <c r="D260" t="n">
         <v>16.4</v>
@@ -9531,7 +9531,7 @@
         <v>6.7</v>
       </c>
       <c r="C261" t="n">
-        <v>0.003138820638820639</v>
+        <v>0.5141891891891892</v>
       </c>
       <c r="D261" t="n">
         <v>16.5</v>
@@ -9569,7 +9569,7 @@
         <v>5.2</v>
       </c>
       <c r="C262" t="n">
-        <v>0.003459791611007213</v>
+        <v>0.5181004541811381</v>
       </c>
       <c r="D262" t="n">
         <v>16.6</v>
@@ -9607,7 +9607,7 @@
         <v>4.4</v>
       </c>
       <c r="C263" t="n">
-        <v>0.003144016227180527</v>
+        <v>0.5413435150936643</v>
       </c>
       <c r="D263" t="n">
         <v>16.6</v>
@@ -9645,7 +9645,7 @@
         <v>4.1</v>
       </c>
       <c r="C264" t="n">
-        <v>0.003366748628711935</v>
+        <v>0.5698884055229809</v>
       </c>
       <c r="D264" t="n">
         <v>16.6</v>
@@ -9683,7 +9683,7 @@
         <v>4</v>
       </c>
       <c r="C265" t="n">
-        <v>0.003355413855011453</v>
+        <v>0.5228130997337955</v>
       </c>
       <c r="D265" t="n">
         <v>16.7</v>
@@ -9721,7 +9721,7 @@
         <v>3.9</v>
       </c>
       <c r="C266" t="n">
-        <v>0.003350785340314136</v>
+        <v>0.5384046812442255</v>
       </c>
       <c r="D266" t="n">
         <v>16.7</v>
@@ -9759,7 +9759,7 @@
         <v>3.1</v>
       </c>
       <c r="C267" t="n">
-        <v>0.003430967659952983</v>
+        <v>0.5277336552512866</v>
       </c>
       <c r="D267" t="n">
         <v>16.8</v>
@@ -9797,7 +9797,7 @@
         <v>2.5</v>
       </c>
       <c r="C268" t="n">
-        <v>0.003627717391304348</v>
+        <v>0.5690217391304347</v>
       </c>
       <c r="D268" t="n">
         <v>16.9</v>
@@ -9835,7 +9835,7 @@
         <v>2.5</v>
       </c>
       <c r="C269" t="n">
-        <v>0.003910289084686522</v>
+        <v>0.6091167261341295</v>
       </c>
       <c r="D269" t="n">
         <v>16.9</v>
@@ -9873,7 +9873,7 @@
         <v>2.7</v>
       </c>
       <c r="C270" t="n">
-        <v>0.003538775241728606</v>
+        <v>0.5067420903768993</v>
       </c>
       <c r="D270" t="n">
         <v>17</v>
@@ -9911,7 +9911,7 @@
         <v>2.6</v>
       </c>
       <c r="C271" t="n">
-        <v>0.003136704119850187</v>
+        <v>0.5132256554307116</v>
       </c>
       <c r="D271" t="n">
         <v>17.1</v>
@@ -9949,7 +9949,7 @@
         <v>4</v>
       </c>
       <c r="C272" t="n">
-        <v>0.002676990030868883</v>
+        <v>0.4415262385506806</v>
       </c>
       <c r="D272" t="n">
         <v>17.1</v>
